--- a/output/temp_bundlers_count_cands.xlsx
+++ b/output/temp_bundlers_count_cands.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +522,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHARLES MYERS</t>
+          <t>BILL STETSON</t>
         </is>
       </c>
       <c r="B17">
@@ -532,7 +532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELIZABETH BAGLEY</t>
+          <t>CHARLES MYERS</t>
         </is>
       </c>
       <c r="B18">
@@ -542,7 +542,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IRWIN JACOBS</t>
+          <t>ELIZABETH BAGLEY</t>
         </is>
       </c>
       <c r="B19">
@@ -552,7 +552,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JAMES COSTOS</t>
+          <t>IRWIN JACOBS</t>
         </is>
       </c>
       <c r="B20">
@@ -562,7 +562,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JAMES CROWN</t>
+          <t>JAMES COSTOS</t>
         </is>
       </c>
       <c r="B21">
@@ -572,7 +572,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JANET KELLER</t>
+          <t>JAMES CROWN</t>
         </is>
       </c>
       <c r="B22">
@@ -582,7 +582,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JOHN EMERSON</t>
+          <t>JANET KELLER</t>
         </is>
       </c>
       <c r="B23">
@@ -592,7 +592,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JON CORZINE</t>
+          <t>JOHN EMERSON</t>
         </is>
       </c>
       <c r="B24">
@@ -602,7 +602,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LINDA MASON</t>
+          <t>JON CORZINE</t>
         </is>
       </c>
       <c r="B25">
@@ -612,7 +612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MACK WILBOURN</t>
+          <t>LINDA MASON</t>
         </is>
       </c>
       <c r="B26">
@@ -702,7 +702,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GEORGE TSUNIS</t>
+          <t>GERALD ACKER</t>
         </is>
       </c>
       <c r="B35">
@@ -712,7 +712,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GERALD ACKER</t>
+          <t>JANE STETSON</t>
         </is>
       </c>
       <c r="B36">
@@ -722,7 +722,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JANE STETSON</t>
+          <t>JOAN JACOBS</t>
         </is>
       </c>
       <c r="B37">
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JOAN JACOBS</t>
+          <t>JOHN MORGAN</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JOHN MORGAN</t>
+          <t>JOHN PHILLIPS</t>
         </is>
       </c>
       <c r="B39">
@@ -752,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JOHN PHILLIPS</t>
+          <t>LEE MILLER</t>
         </is>
       </c>
       <c r="B40">
@@ -762,7 +762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LEE MILLER</t>
+          <t>LISA GOLDMAN</t>
         </is>
       </c>
       <c r="B41">
@@ -772,7 +772,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LISA GOLDMAN</t>
+          <t>MACK WILBOURN</t>
         </is>
       </c>
       <c r="B42">
@@ -932,7 +932,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ALEXA WESNER</t>
+          <t>AMY SINGH</t>
         </is>
       </c>
       <c r="B58">
@@ -942,7 +942,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AMY SINGH</t>
+          <t>AZITA RAJI</t>
         </is>
       </c>
       <c r="B59">
@@ -952,7 +952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ANDREW WEINSTEIN</t>
+          <t>BARRY GOODMAN</t>
         </is>
       </c>
       <c r="B60">
@@ -962,7 +962,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AZITA RAJI</t>
+          <t>BECKY DRAPER</t>
         </is>
       </c>
       <c r="B61">
@@ -972,7 +972,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BARRY GOODMAN</t>
+          <t>BEVERLY REEVES</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BECKY DRAPER</t>
+          <t>BOB CLARK</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BEVERLY REEVES</t>
+          <t>BOB SHERMAN</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,7 +1002,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BOB CLARK</t>
+          <t>BOBBY STEIN</t>
         </is>
       </c>
       <c r="B65">
@@ -1012,7 +1012,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BOB SHERMAN</t>
+          <t>BRUCE HEYMAN</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BOBBY STEIN</t>
+          <t>CAROL FRILLMAN</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,7 +1032,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BRUCE HEYMAN</t>
+          <t>CAROL HAMILTON</t>
         </is>
       </c>
       <c r="B68">
@@ -1212,7 +1212,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EUGENE SEPULVEDA</t>
+          <t>ELSPETH FARMER</t>
         </is>
       </c>
       <c r="B86">
@@ -1222,7 +1222,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GARY PAUL</t>
+          <t>EUGENE SEPULVEDA</t>
         </is>
       </c>
       <c r="B87">
@@ -1232,7 +1232,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HENRY MUNOZ</t>
+          <t>GARY PAUL</t>
         </is>
       </c>
       <c r="B88">
@@ -1242,7 +1242,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JACK CONNORS</t>
+          <t>HENRY MUNOZ</t>
         </is>
       </c>
       <c r="B89">
@@ -1252,7 +1252,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>JAMES BREWSTER</t>
+          <t>JACK CONNORS</t>
         </is>
       </c>
       <c r="B90">
@@ -1262,7 +1262,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JILL LEVI</t>
+          <t>JAMES BREWSTER</t>
         </is>
       </c>
       <c r="B91">
@@ -1272,7 +1272,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>JOHN FRANK</t>
+          <t>JILL LEVI</t>
         </is>
       </c>
       <c r="B92">
@@ -1282,7 +1282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>JOSEPH FALK</t>
+          <t>JOHN FRANK</t>
         </is>
       </c>
       <c r="B93">
@@ -1292,7 +1292,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>JOSH FIDLER</t>
+          <t>JOSEPH FALK</t>
         </is>
       </c>
       <c r="B94">
@@ -1302,7 +1302,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>JUSTIN DAY</t>
+          <t>JOSH FIDLER</t>
         </is>
       </c>
       <c r="B95">
@@ -1312,7 +1312,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>JUSTIN TANNER</t>
+          <t>JUSTIN DAY</t>
         </is>
       </c>
       <c r="B96">
@@ -1322,7 +1322,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KAWANNA BROWN</t>
+          <t>JUSTIN TANNER</t>
         </is>
       </c>
       <c r="B97">
@@ -1332,7 +1332,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KERMAN MADDOX</t>
+          <t>KAWANNA BROWN</t>
         </is>
       </c>
       <c r="B98">
@@ -1342,7 +1342,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KEVIN CONLON</t>
+          <t>KERMAN MADDOX</t>
         </is>
       </c>
       <c r="B99">
@@ -1352,7 +1352,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>KRISTIN OBLANDER</t>
+          <t>KEVIN CONLON</t>
         </is>
       </c>
       <c r="B100">
@@ -1362,7 +1362,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LAURA RICKETTS</t>
+          <t>KRISTIN OBLANDER</t>
         </is>
       </c>
       <c r="B101">
@@ -1372,7 +1372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LENI ECCLES</t>
+          <t>LAURA RICKETTS</t>
         </is>
       </c>
       <c r="B102">
@@ -1382,7 +1382,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LES CONEY</t>
+          <t>LENI ECCLES</t>
         </is>
       </c>
       <c r="B103">
@@ -1392,7 +1392,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LOU FRILLMAN</t>
+          <t>LES CONEY</t>
         </is>
       </c>
       <c r="B104">
@@ -1402,7 +1402,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MAI LASSITER</t>
+          <t>LOU FRILLMAN</t>
         </is>
       </c>
       <c r="B105">
@@ -1412,7 +1412,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MARC BENIOFF</t>
+          <t>MAI LASSITER</t>
         </is>
       </c>
       <c r="B106">
@@ -1422,7 +1422,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MARGARET RUSSELL</t>
+          <t>MARC BENIOFF</t>
         </is>
       </c>
       <c r="B107">
@@ -1432,7 +1432,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MARK ALDERMAN</t>
+          <t>MARGARET RUSSELL</t>
         </is>
       </c>
       <c r="B108">
@@ -1442,7 +1442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MARK GILBERT</t>
+          <t>MARK ALDERMAN</t>
         </is>
       </c>
       <c r="B109">
@@ -1452,7 +1452,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MASSI KIANI</t>
+          <t>MARK GILBERT</t>
         </is>
       </c>
       <c r="B110">
@@ -1462,7 +1462,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MATTHEW BARZUN</t>
+          <t>MARY ALICE MCLARTY</t>
         </is>
       </c>
       <c r="B111">
@@ -1472,7 +1472,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MATTIE MCFADDEN-LAWSON</t>
+          <t>MASSI KIANI</t>
         </is>
       </c>
       <c r="B112">
@@ -1482,7 +1482,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PAM HAMAMOTO</t>
+          <t>MATTHEW BARZUN</t>
         </is>
       </c>
       <c r="B113">
@@ -1492,7 +1492,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RHONDA COHEN</t>
+          <t>MATTIE MCFADDEN-LAWSON</t>
         </is>
       </c>
       <c r="B114">
@@ -1502,7 +1502,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RICHARD HARPOOTLIAN</t>
+          <t>PAM HAMAMOTO</t>
         </is>
       </c>
       <c r="B115">
@@ -1512,7 +1512,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ROB BARBER</t>
+          <t>RHONDA COHEN</t>
         </is>
       </c>
       <c r="B116">
@@ -1522,7 +1522,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ROBERT POHLAD</t>
+          <t>RICHARD HARPOOTLIAN</t>
         </is>
       </c>
       <c r="B117">
@@ -1532,7 +1532,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SALLY SUSMAN</t>
+          <t>ROB BARBER</t>
         </is>
       </c>
       <c r="B118">
@@ -1542,7 +1542,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SAM HEINS</t>
+          <t>ROBERT POHLAD</t>
         </is>
       </c>
       <c r="B119">
@@ -1552,7 +1552,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SCOTT HARRIS</t>
+          <t>SALLY SUSMAN</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,7 +1562,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SCOTT MILLER</t>
+          <t>SAM HEINS</t>
         </is>
       </c>
       <c r="B121">
@@ -1572,7 +1572,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>STEVE WESTLY</t>
+          <t>SCOTT HARRIS</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>STEWART BAINUM</t>
+          <t>SCOTT MILLER</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,7 +1592,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TERENCE MCAULIFFE</t>
+          <t>STEVE COHEN</t>
         </is>
       </c>
       <c r="B124">
@@ -1602,7 +1602,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TIM GILL</t>
+          <t>STEVE WESTLY</t>
         </is>
       </c>
       <c r="B125">
@@ -1612,7 +1612,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TOM WHEELER</t>
+          <t>STEWART BAINUM</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TONY JAMES</t>
+          <t>TERENCE MCAULIFFE</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VICKI HEYMAN</t>
+          <t>TIM GILL</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WILLIAM FREEMAN</t>
+          <t>TOM WHEELER</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,10 +1652,40 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>TONY JAMES</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>VICKI HEYMAN</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WILLIAM FREEMAN</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
           <t>YOLANDA PARKER</t>
         </is>
       </c>
-      <c r="B130">
+      <c r="B133">
         <v>1</v>
       </c>
     </row>
